--- a/exportorv2/example/Info2.xlsx
+++ b/exportorv2/example/Info2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,6 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -84,6 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -286,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,19 +350,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -724,7 +713,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -791,6 +780,9 @@
       <c r="B5" s="2">
         <v>1894</v>
       </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -798,6 +790,9 @@
       </c>
       <c r="B6" s="5">
         <v>5648</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
       </c>
       <c r="D6"/>
     </row>
